--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17FA189C-3E1F-44A1-AEFA-858C8228A697}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC7494-B4D3-4EF4-904E-696C2DFE8AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>No.</t>
   </si>
@@ -241,13 +241,20 @@
   </si>
   <si>
     <t>Buku Seri Budi Pekerti_1 SET</t>
+  </si>
+  <si>
+    <t>TASBIH KAYU BUTIR</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -288,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -311,11 +318,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +361,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1285,6 +1315,23 @@
         <v>48600</v>
       </c>
     </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="13">
+        <v>4750</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2FC7494-B4D3-4EF4-904E-696C2DFE8AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA8152-2C63-4436-859D-0DD6244AA174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3270" yWindow="2535" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
   <si>
     <t>No.</t>
   </si>
@@ -247,6 +248,15 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>CUSTOM</t>
+  </si>
+  <si>
+    <t>CUSTOM AL QURAN MENGENANG/WAFAT 40/100/1000 HARI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL - QUR'AN NON TERJEMAH TERMURAH A5 A6 A7 </t>
   </si>
 </sst>
 </file>
@@ -333,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -363,17 +373,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,15 +668,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="25.42578125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.140625" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="23" customWidth="1"/>
@@ -1332,6 +1345,150 @@
         <v>4750</v>
       </c>
     </row>
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40" s="15"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A27CC-5D0C-4EFC-9EF1-FAA07A6CDFD8}">
+  <dimension ref="A1:A39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+    </row>
+    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+    </row>
+    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+    </row>
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+    </row>
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+    </row>
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+    </row>
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+    </row>
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+    </row>
+    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+    </row>
+    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+    </row>
+    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="7"/>
+    </row>
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+    </row>
+    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="7"/>
+    </row>
+    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+    </row>
+    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="7"/>
+    </row>
+    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FA8152-2C63-4436-859D-0DD6244AA174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A4433-221B-42FE-9A76-8F6FD800E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3270" yWindow="2535" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="1275" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -91,9 +91,6 @@
     <t>7.</t>
   </si>
   <si>
-    <t>AL-AQEEL  GOLD</t>
-  </si>
-  <si>
     <t>8.</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>11.</t>
   </si>
   <si>
-    <t>AL-AQEEL  SILVER</t>
-  </si>
-  <si>
     <t>12.</t>
   </si>
   <si>
@@ -127,18 +121,12 @@
     <t>15.</t>
   </si>
   <si>
-    <t>AL  ALEEM TERJEMAH/ HC</t>
-  </si>
-  <si>
     <t>QPP</t>
   </si>
   <si>
     <t>16.</t>
   </si>
   <si>
-    <t>AL  ALEEM TERJEMAH</t>
-  </si>
-  <si>
     <t>17.</t>
   </si>
   <si>
@@ -172,9 +160,6 @@
     <t>23.</t>
   </si>
   <si>
-    <t>AL QUR'AN SAKU MAHEER/  RESLETING</t>
-  </si>
-  <si>
     <t>24.</t>
   </si>
   <si>
@@ -257,6 +242,21 @@
   </si>
   <si>
     <t xml:space="preserve">AL - QUR'AN NON TERJEMAH TERMURAH A5 A6 A7 </t>
+  </si>
+  <si>
+    <t>AL ALEEM TERJEMAH</t>
+  </si>
+  <si>
+    <t>AL-AQEEL GOLD</t>
+  </si>
+  <si>
+    <t>AL-AQEEL SILVER</t>
+  </si>
+  <si>
+    <t>AL ALEEM TERJEMAH/HC</t>
+  </si>
+  <si>
+    <t>AL QUR'AN SAKU MAHEER / RESLETING</t>
   </si>
 </sst>
 </file>
@@ -343,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -384,9 +384,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -670,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +803,7 @@
         <v>20</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>13</v>
@@ -820,10 +817,10 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>13</v>
@@ -837,16 +834,16 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="E10" s="5">
         <v>14000</v>
@@ -854,16 +851,16 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>25</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>26</v>
       </c>
       <c r="E11" s="5">
         <v>8500</v>
@@ -871,10 +868,10 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>13</v>
@@ -888,10 +885,10 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>13</v>
@@ -905,10 +902,10 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
@@ -922,16 +919,16 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>28</v>
+        <v>74</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="5">
         <v>8500</v>
@@ -939,13 +936,13 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>19</v>
@@ -956,10 +953,10 @@
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>13</v>
@@ -973,13 +970,13 @@
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>10</v>
@@ -990,16 +987,16 @@
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E19" s="5">
         <v>50000</v>
@@ -1007,16 +1004,16 @@
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E20" s="5">
         <v>68000</v>
@@ -1024,10 +1021,10 @@
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>13</v>
@@ -1041,13 +1038,13 @@
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>10</v>
@@ -1058,13 +1055,13 @@
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>10</v>
@@ -1075,16 +1072,16 @@
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E24" s="5">
         <v>17000</v>
@@ -1092,16 +1089,16 @@
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E25" s="5">
         <v>18000</v>
@@ -1109,16 +1106,16 @@
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E26" s="5">
         <v>39000</v>
@@ -1126,10 +1123,10 @@
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>13</v>
@@ -1143,13 +1140,13 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>10</v>
@@ -1160,16 +1157,16 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E29" s="5">
         <v>19000</v>
@@ -1177,16 +1174,16 @@
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E30" s="5">
         <v>7200</v>
@@ -1194,16 +1191,16 @@
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E31" s="5">
         <v>9000</v>
@@ -1214,13 +1211,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E32" s="5">
         <v>25200</v>
@@ -1231,13 +1228,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E33" s="5">
         <v>25200</v>
@@ -1248,13 +1245,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E34" s="5">
         <v>12000</v>
@@ -1265,13 +1262,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5">
         <v>21000</v>
@@ -1282,13 +1279,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E36" s="8">
         <v>64800</v>
@@ -1299,13 +1296,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E37" s="8">
         <v>48600</v>
@@ -1316,13 +1313,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>13</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E38" s="8">
         <v>48600</v>
@@ -1333,20 +1330,20 @@
         <v>38</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C39" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D39" s="14" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="E39" s="13">
         <v>4750</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="15"/>
+      <c r="B40" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1357,7 +1354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A27CC-5D0C-4EFC-9EF1-FAA07A6CDFD8}">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1368,17 +1365,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538A4433-221B-42FE-9A76-8F6FD800E3F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719F85F-C4D1-4A44-A003-72D9D383B7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="1275" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
   <si>
     <t>No.</t>
   </si>
@@ -43,9 +43,6 @@
     <t xml:space="preserve"> KATALOG HARGA </t>
   </si>
   <si>
-    <t>1.</t>
-  </si>
-  <si>
     <t>AL-AQEEL KORAN</t>
   </si>
   <si>
@@ -55,147 +52,60 @@
     <t>B5 (17,6X25CM)</t>
   </si>
   <si>
-    <t>2.</t>
-  </si>
-  <si>
     <t>A5 (14,8X21CM)</t>
   </si>
   <si>
-    <t>3.</t>
-  </si>
-  <si>
     <t>AL-AQEEL HVS</t>
   </si>
   <si>
     <t>HVS</t>
   </si>
   <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
     <t>AL-AQEEL PASTEL B5</t>
   </si>
   <si>
-    <t>6.</t>
-  </si>
-  <si>
     <t>AL-AQEEL PASTEL A6</t>
   </si>
   <si>
     <t>A6 (10,5X14,5CM)</t>
   </si>
   <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
     <t>A6 ((10,5X14,5CM)</t>
   </si>
   <si>
-    <t>10.</t>
-  </si>
-  <si>
     <t>A7 (7,4X10,5CM)</t>
   </si>
   <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>12.</t>
-  </si>
-  <si>
-    <t>13.</t>
-  </si>
-  <si>
-    <t>14.</t>
-  </si>
-  <si>
-    <t>15.</t>
-  </si>
-  <si>
     <t>QPP</t>
   </si>
   <si>
-    <t>16.</t>
-  </si>
-  <si>
-    <t>17.</t>
-  </si>
-  <si>
-    <t>18.</t>
-  </si>
-  <si>
     <t>AL FIKRAH</t>
   </si>
   <si>
     <t>A4 (21X29,7CM)</t>
   </si>
   <si>
-    <t>19.</t>
-  </si>
-  <si>
-    <t>20.</t>
-  </si>
-  <si>
-    <t>21.</t>
-  </si>
-  <si>
     <t>MUMTAAZ</t>
   </si>
   <si>
-    <t>22.</t>
-  </si>
-  <si>
     <t>SUBHAAN</t>
   </si>
   <si>
-    <t>23.</t>
-  </si>
-  <si>
-    <t>24.</t>
-  </si>
-  <si>
-    <t>25.</t>
-  </si>
-  <si>
     <t>AL QUDDUS</t>
   </si>
   <si>
-    <t>26.</t>
-  </si>
-  <si>
     <t>AL QUDDUS IBTIDA</t>
   </si>
   <si>
-    <t>27.</t>
-  </si>
-  <si>
-    <t>28.</t>
-  </si>
-  <si>
     <t>AL QUDDUS SAKU RESLETING</t>
   </si>
   <si>
-    <t>29.</t>
-  </si>
-  <si>
     <t>JUZ'AMMA</t>
   </si>
   <si>
     <t>A5 (14,5X20CM)</t>
   </si>
   <si>
-    <t>30.</t>
-  </si>
-  <si>
     <t>Seri Fabel Binatang_1 SET</t>
   </si>
   <si>
@@ -253,10 +163,10 @@
     <t>AL-AQEEL SILVER</t>
   </si>
   <si>
-    <t>AL ALEEM TERJEMAH/HC</t>
-  </si>
-  <si>
     <t>AL QUR'AN SAKU MAHEER / RESLETING</t>
+  </si>
+  <si>
+    <t>AL ALEEM HC</t>
   </si>
 </sst>
 </file>
@@ -343,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -359,22 +269,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -665,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -697,653 +598,708 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="E2" s="5">
         <v>21000</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>9</v>
+      <c r="A3" s="3">
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="5">
         <v>14500</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>11</v>
+      <c r="A4" s="3">
+        <f t="shared" ref="A4:A40" si="0">A3+1</f>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E4" s="5">
         <v>27000</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
         <v>18000</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6" s="5">
         <v>28000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>17</v>
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E7" s="5">
         <v>12500</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>20</v>
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" s="5">
         <v>21000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>21</v>
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" s="5">
         <v>31000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>22</v>
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E10" s="5">
         <v>14000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>24</v>
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E11" s="5">
         <v>8500</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>26</v>
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" s="5">
         <v>31000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>27</v>
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
         <v>18000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>28</v>
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>19</v>
       </c>
       <c r="E14" s="5">
         <v>14000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E15" s="5">
         <v>8500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>30</v>
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5">
         <v>14000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="5">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="5">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5">
+        <v>68000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="5">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="5">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="5">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="5">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="5">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E32" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="5">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E18" s="5">
-        <v>33000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="5">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="5">
-        <v>68000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="5">
-        <v>26000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="5">
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E23" s="5">
-        <v>72000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="5">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E25" s="5">
-        <v>18000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="5">
-        <v>39000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="5">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E28" s="5">
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E29" s="5">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="5">
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="5">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="5">
-        <v>25200</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>58</v>
+      <c r="B33" s="6" t="s">
+        <v>26</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="E33" s="5">
         <v>25200</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>59</v>
+      <c r="B34" s="6" t="s">
+        <v>28</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E34" s="5">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E35" s="5">
         <v>12000</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
+    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E35" s="5">
-        <v>21000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
+      <c r="D37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="7">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="E36" s="8">
-        <v>64800</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
+      <c r="C38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="8">
+      <c r="C39" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="7">
         <v>48600</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
+    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="8">
-        <v>48600</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="C40" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="13">
+      <c r="D40" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E40" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B40" s="12"/>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1365,17 +1321,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1463,28 +1419,28 @@
       <c r="A31" s="4"/>
     </row>
     <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
+      <c r="A32" s="6"/>
     </row>
     <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
+      <c r="A33" s="6"/>
     </row>
     <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
+      <c r="A34" s="6"/>
     </row>
     <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
+      <c r="A35" s="6"/>
     </row>
     <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
+      <c r="A36" s="6"/>
     </row>
     <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
+      <c r="A37" s="6"/>
     </row>
     <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
+      <c r="A38" s="6"/>
     </row>
     <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="A39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0719F85F-C4D1-4A44-A003-72D9D383B7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3981C60-6BCE-4E60-9A63-2F69438618A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
   <si>
     <t>No.</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>A6 (10,5X14,5CM)</t>
-  </si>
-  <si>
-    <t>A6 ((10,5X14,5CM)</t>
   </si>
   <si>
     <t>A7 (7,4X10,5CM)</t>
@@ -566,10 +563,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,7 +631,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A40" si="0">A3+1</f>
+        <f t="shared" ref="A4:A41" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -651,10 +648,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>9</v>
       </c>
@@ -662,220 +656,220 @@
         <v>10</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E5" s="5">
-        <v>18000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A4+1</f>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>28000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E7" s="5">
-        <v>12500</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E8" s="5">
-        <v>21000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" s="5">
-        <v>31000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E10" s="5">
-        <v>14000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
-        <v>8500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E12" s="5">
-        <v>31000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" s="5">
-        <v>18000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
-        <v>14000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
-        <v>8500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="5">
-        <v>14000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>13</v>
@@ -887,304 +881,304 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5">
-        <v>26000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E19" s="5">
-        <v>33000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E20" s="5">
-        <v>50000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="E21" s="5">
-        <v>68000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E22" s="5">
-        <v>26000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E23" s="5">
-        <v>75000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="5">
-        <v>72000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E25" s="5">
-        <v>17000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5">
-        <v>18000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E27" s="5">
-        <v>39000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E28" s="5">
-        <v>24000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="5">
-        <v>32000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E30" s="5">
-        <v>19000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="E31" s="5">
-        <v>7200</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="E32" s="5">
-        <v>9000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E33" s="5">
-        <v>25200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="5">
         <v>25200</v>
@@ -1193,88 +1187,88 @@
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E35" s="5">
-        <v>12000</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E36" s="5">
-        <v>21000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E37" s="7">
-        <v>64800</v>
+        <v>31</v>
+      </c>
+      <c r="E37" s="5">
+        <v>21000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E38" s="7">
-        <v>48600</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C39" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E39" s="7">
         <v>48600</v>
@@ -1283,23 +1277,41 @@
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E40" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B41" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="10">
+      <c r="D41" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1311,7 +1323,7 @@
   <dimension ref="A1:A39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1321,17 +1333,17 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3981C60-6BCE-4E60-9A63-2F69438618A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871CD6D9-6B4E-4BD2-B6D5-3D14CDAA4BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="43">
   <si>
     <t>No.</t>
   </si>
@@ -140,15 +139,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>CUSTOM</t>
-  </si>
-  <si>
-    <t>CUSTOM AL QURAN MENGENANG/WAFAT 40/100/1000 HARI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AL - QUR'AN NON TERJEMAH TERMURAH A5 A6 A7 </t>
   </si>
   <si>
     <t>AL ALEEM TERJEMAH</t>
@@ -566,7 +556,7 @@
   <dimension ref="A1:E42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +712,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -740,7 +730,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -758,7 +748,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -776,7 +766,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -794,7 +784,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
@@ -812,7 +802,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
@@ -830,7 +820,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -848,7 +838,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -866,7 +856,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>15</v>
@@ -884,7 +874,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
@@ -902,7 +892,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
@@ -920,7 +910,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>15</v>
@@ -1028,7 +1018,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>10</v>
@@ -1046,7 +1036,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>15</v>
@@ -1312,147 +1302,6 @@
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="9"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8A27CC-5D0C-4EFC-9EF1-FAA07A6CDFD8}">
-  <dimension ref="A1:A39"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="59.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-    </row>
-    <row r="6" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
-    <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-    </row>
-    <row r="8" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-    </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-    </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-    </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-    </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-    </row>
-    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-    </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-    </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-    </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-    </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-    </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-    </row>
-    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-    </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-    </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-    </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-    </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-    </row>
-    <row r="31" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-    </row>
-    <row r="32" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="6"/>
-    </row>
-    <row r="33" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="6"/>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="6"/>
-    </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="6"/>
-    </row>
-    <row r="36" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-    </row>
-    <row r="37" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-    </row>
-    <row r="38" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-    </row>
-    <row r="39" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871CD6D9-6B4E-4BD2-B6D5-3D14CDAA4BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1667C447-7E4E-48FF-BDBA-79005E791F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
   <si>
     <t>No.</t>
   </si>
@@ -154,6 +154,9 @@
   </si>
   <si>
     <t>AL ALEEM HC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AL-AQEEL PASTEL A6 EDISI TAHLILAN </t>
   </si>
 </sst>
 </file>
@@ -553,10 +556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +624,7 @@
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
-        <f t="shared" ref="A4:A41" si="0">A3+1</f>
+        <f t="shared" ref="A4:A42" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -689,12 +692,9 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
+      <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>10</v>
@@ -703,31 +703,31 @@
         <v>13</v>
       </c>
       <c r="E8" s="5">
-        <v>12500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A7+1</f>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E9" s="5">
-        <v>21000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>39</v>
@@ -736,16 +736,16 @@
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="5">
-        <v>31000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>39</v>
@@ -754,16 +754,16 @@
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E11" s="5">
-        <v>14000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>39</v>
@@ -772,34 +772,34 @@
         <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>8500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E13" s="5">
-        <v>31000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>40</v>
@@ -808,16 +808,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" s="5">
-        <v>18000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>40</v>
@@ -826,16 +826,16 @@
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E15" s="5">
-        <v>14000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>40</v>
@@ -844,37 +844,37 @@
         <v>10</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E16" s="5">
-        <v>8500</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="5">
-        <v>14000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>15</v>
@@ -889,118 +889,118 @@
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5">
-        <v>26000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E20" s="5">
-        <v>33000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E21" s="5">
-        <v>50000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E22" s="5">
-        <v>68000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E23" s="5">
-        <v>26000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E24" s="5">
-        <v>75000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
@@ -1009,178 +1009,178 @@
         <v>8</v>
       </c>
       <c r="E25" s="5">
-        <v>72000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E26" s="5">
-        <v>17000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="E27" s="5">
-        <v>18000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E28" s="5">
-        <v>39000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5">
-        <v>24000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="5">
-        <v>32000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5">
-        <v>19000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E32" s="5">
-        <v>7200</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E33" s="5">
-        <v>9000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E34" s="5">
-        <v>25200</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
@@ -1195,82 +1195,82 @@
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E36" s="5">
-        <v>12000</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E37" s="5">
-        <v>21000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E38" s="7">
-        <v>64800</v>
+      <c r="E38" s="5">
+        <v>21000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>10</v>
+        <v>32</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E39" s="7">
-        <v>48600</v>
+        <v>64800</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>10</v>
@@ -1285,23 +1285,41 @@
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E41" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B42" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C41" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E42" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="9"/>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1667C447-7E4E-48FF-BDBA-79005E791F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B85C2A-B727-4CC8-8F3D-4F54E9E7F86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2925" yWindow="2190" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>No.</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t xml:space="preserve">AL-AQEEL PASTEL A6 EDISI TAHLILAN </t>
+  </si>
+  <si>
+    <t>AL-AQEEL KORAN SATUAN</t>
+  </si>
+  <si>
+    <t>AL-AQEEL KORAN PAKET ISI 3</t>
+  </si>
+  <si>
+    <t>AL-AQEEL KORAN PAKET ISI 5</t>
+  </si>
+  <si>
+    <t>AL-AQEEL KORAN PAKET ISI 7</t>
   </si>
 </sst>
 </file>
@@ -556,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -605,12 +617,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>6</v>
@@ -619,100 +628,94 @@
         <v>8</v>
       </c>
       <c r="E3" s="5">
-        <v>14500</v>
+        <v>72500</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <f t="shared" ref="A4:A42" si="0">A3+1</f>
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E4" s="5">
-        <v>27000</v>
+        <v>101500</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E5" s="5">
-        <v>12500</v>
+        <v>43500</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <f>A4+1</f>
-        <v>4</v>
-      </c>
+      <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="5">
-        <v>18000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>A2+1</f>
+        <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" ref="A8:A46" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="5">
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E8" s="5">
-        <v>14500</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <f>A7+1</f>
-        <v>6</v>
-      </c>
+      <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>10</v>
@@ -726,11 +729,11 @@
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
+        <f>A8+1</f>
+        <v>4</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
@@ -739,16 +742,16 @@
         <v>8</v>
       </c>
       <c r="E10" s="5">
-        <v>21000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
@@ -757,16 +760,13 @@
         <v>7</v>
       </c>
       <c r="E11" s="5">
-        <v>31000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
+      <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -775,70 +775,70 @@
         <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>14000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>A11+1</f>
+        <v>6</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
-        <v>8500</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" s="5">
-        <v>31000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" s="5">
-        <v>18000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -853,10 +853,10 @@
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
@@ -871,118 +871,118 @@
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E18" s="5">
-        <v>14000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5">
-        <v>14000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E20" s="5">
-        <v>26000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E21" s="5">
-        <v>33000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5">
-        <v>50000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E23" s="5">
-        <v>68000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
@@ -997,10 +997,10 @@
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
@@ -1009,124 +1009,124 @@
         <v>8</v>
       </c>
       <c r="E25" s="5">
-        <v>75000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E26" s="5">
-        <v>72000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E27" s="5">
-        <v>17000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E28" s="5">
-        <v>18000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5">
-        <v>39000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E30" s="5">
-        <v>24000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E31" s="5">
-        <v>32000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
@@ -1135,191 +1135,263 @@
         <v>14</v>
       </c>
       <c r="E32" s="5">
-        <v>19000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E33" s="5">
-        <v>7200</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5">
-        <v>9000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E35" s="5">
-        <v>25200</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E36" s="5">
-        <v>25200</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E37" s="5">
-        <v>12000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E38" s="5">
-        <v>21000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="7">
-        <v>64800</v>
+        <v>26</v>
+      </c>
+      <c r="E39" s="5">
+        <v>25200</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C40" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E40" s="7">
-        <v>48600</v>
+      <c r="E40" s="5">
+        <v>25200</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C41" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E41" s="7">
-        <v>48600</v>
+        <v>29</v>
+      </c>
+      <c r="E41" s="5">
+        <v>12000</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E42" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="7">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E44" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E45" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B46" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E46" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B47" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27B85C2A-B727-4CC8-8F3D-4F54E9E7F86B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8990AA8D-8C21-4A60-9E70-76F8E5D7DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2925" yWindow="2190" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -570,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -901,7 +901,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="5">
-        <v>18000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8990AA8D-8C21-4A60-9E70-76F8E5D7DD93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B953CE-3757-4936-A030-C44023182DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
   <si>
     <t>No.</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t>AL-AQEEL KORAN PAKET ISI 7</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS PAKET ISI 3</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS PAKET ISI 7</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS PAKET ISI 5</t>
   </si>
 </sst>
 </file>
@@ -568,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -696,7 +705,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" ref="A8:A46" si="0">A7+1</f>
+        <f t="shared" ref="A8:A49" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -728,45 +737,39 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <f>A8+1</f>
-        <v>4</v>
-      </c>
+      <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E10" s="5">
-        <v>18000</v>
+        <v>87500</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E11" s="5">
-        <v>28000</v>
+        <v>62500</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -775,70 +778,67 @@
         <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>14500</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <f>A11+1</f>
-        <v>6</v>
+        <f>A8+1</f>
+        <v>4</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E13" s="5">
-        <v>12500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="E14" s="5">
-        <v>21000</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E15" s="5">
-        <v>31000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>A14+1</f>
+        <v>6</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -847,13 +847,13 @@
         <v>13</v>
       </c>
       <c r="E16" s="5">
-        <v>14000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>39</v>
@@ -862,19 +862,19 @@
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E17" s="5">
-        <v>8500</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
@@ -889,43 +889,43 @@
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E19" s="5">
-        <v>21000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="5">
-        <v>14000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>40</v>
@@ -934,40 +934,40 @@
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E21" s="5">
-        <v>8500</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E22" s="5">
-        <v>14000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>13</v>
@@ -979,419 +979,473 @@
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E24" s="5">
-        <v>26000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E25" s="5">
-        <v>33000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E26" s="5">
-        <v>50000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5">
-        <v>68000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5">
-        <v>26000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E29" s="5">
-        <v>75000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E30" s="5">
-        <v>72000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E31" s="5">
-        <v>17000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E32" s="5">
-        <v>18000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E33" s="5">
-        <v>39000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E34" s="5">
-        <v>24000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E35" s="5">
-        <v>32000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E36" s="5">
-        <v>19000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E37" s="5">
-        <v>7200</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E38" s="5">
-        <v>9000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E39" s="5">
-        <v>25200</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E40" s="5">
-        <v>25200</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E41" s="5">
-        <v>12000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E42" s="5">
-        <v>21000</v>
+        <v>25200</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="7">
-        <v>64800</v>
+        <v>26</v>
+      </c>
+      <c r="E43" s="5">
+        <v>25200</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E44" s="7">
-        <v>48600</v>
+        <v>29</v>
+      </c>
+      <c r="E44" s="5">
+        <v>12000</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E45" s="7">
-        <v>48600</v>
+        <v>31</v>
+      </c>
+      <c r="E45" s="5">
+        <v>21000</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="7">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E47" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E48" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B49" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D46" s="11" t="s">
+      <c r="D49" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E49" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B50" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B953CE-3757-4936-A030-C44023182DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7953074-3C04-4148-9DF8-92141C0146B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
   <si>
     <t>No.</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>AL-AQEEL HVS PAKET ISI 5</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS standar/tanpa custom</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS sisipan 1 halaman</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS sisipan 2 halaman</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS custom jaket</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS sisipan 1hal + jaket</t>
+  </si>
+  <si>
+    <t>AL-AQEEL HVS sisipan 2hal + jaket</t>
   </si>
 </sst>
 </file>
@@ -577,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E50"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,7 +723,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" ref="A8:A49" si="0">A7+1</f>
+        <f t="shared" ref="A8:A55" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -769,7 +787,7 @@
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>10</v>
@@ -778,49 +796,43 @@
         <v>13</v>
       </c>
       <c r="E12" s="5">
-        <v>37500</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <f>A8+1</f>
-        <v>4</v>
-      </c>
+      <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E13" s="5">
-        <v>18000</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E14" s="5">
-        <v>28000</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>10</v>
@@ -829,16 +841,13 @@
         <v>13</v>
       </c>
       <c r="E15" s="5">
-        <v>14500</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <f>A14+1</f>
-        <v>6</v>
-      </c>
+      <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>10</v>
@@ -847,163 +856,154 @@
         <v>13</v>
       </c>
       <c r="E16" s="5">
-        <v>12500</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
+      <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E17" s="5">
-        <v>21000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
+      <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E18" s="5">
-        <v>31000</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
-        <f t="shared" si="0"/>
+        <f>A8+1</f>
+        <v>4</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C19" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E19" s="5">
-        <v>14000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E20" s="5">
-        <v>8500</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E21" s="5">
-        <v>31000</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
-        <f t="shared" si="0"/>
+        <f>A20+1</f>
+        <v>6</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="C22" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E22" s="5">
-        <v>21000</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E23" s="5">
-        <v>14000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E24" s="5">
-        <v>8500</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>13</v>
@@ -1015,208 +1015,208 @@
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="5">
-        <v>14000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="5">
-        <v>26000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="5">
-        <v>33000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E29" s="5">
-        <v>50000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E30" s="5">
-        <v>68000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E31" s="5">
-        <v>26000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E32" s="5">
-        <v>75000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="5">
-        <v>72000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E34" s="5">
-        <v>17000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E35" s="5">
-        <v>18000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E36" s="5">
-        <v>39000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
@@ -1225,16 +1225,16 @@
         <v>8</v>
       </c>
       <c r="E37" s="5">
-        <v>24000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>15</v>
@@ -1243,209 +1243,317 @@
         <v>8</v>
       </c>
       <c r="E38" s="5">
-        <v>32000</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E39" s="5">
-        <v>19000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E40" s="5">
-        <v>7200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E41" s="5">
-        <v>9000</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E42" s="5">
-        <v>25200</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B43" s="6" t="s">
         <v>27</v>
       </c>
+      <c r="B43" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="E43" s="5">
-        <v>25200</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B44" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B44" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="C44" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E44" s="5">
-        <v>12000</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="E45" s="5">
-        <v>21000</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="7">
-        <v>64800</v>
+        <v>24</v>
+      </c>
+      <c r="E46" s="5">
+        <v>7200</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E47" s="7">
-        <v>48600</v>
+        <v>24</v>
+      </c>
+      <c r="E47" s="5">
+        <v>9000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C48" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E48" s="7">
-        <v>48600</v>
+      <c r="E48" s="5">
+        <v>25200</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E49" s="5">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E50" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="7">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E53" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E54" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B55" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D49" s="11" t="s">
+      <c r="D55" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E55" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B50" s="9"/>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7953074-3C04-4148-9DF8-92141C0146B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB6DD1E-4214-4C0B-9142-76CF0A750E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
   <si>
     <t>No.</t>
   </si>
@@ -196,6 +196,18 @@
   </si>
   <si>
     <t>AL-AQEEL HVS sisipan 2hal + jaket</t>
+  </si>
+  <si>
+    <t>AL-AQEEL GOLD SATUAN</t>
+  </si>
+  <si>
+    <t>AL-AQEEL GOLD PAKET ISI 3</t>
+  </si>
+  <si>
+    <t>AL-AQEEL GOLD PAKET ISI 5</t>
+  </si>
+  <si>
+    <t>AL-AQEEL GOLD PAKET ISI 7</t>
   </si>
 </sst>
 </file>
@@ -595,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,7 +735,7 @@
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
-        <f t="shared" ref="A8:A55" si="0">A7+1</f>
+        <f t="shared" ref="A8:A63" si="0">A7+1</f>
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -1031,30 +1043,24 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
+      <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E27" s="5">
-        <v>31000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
+      <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C28" s="3" t="s">
         <v>10</v>
@@ -1063,497 +1069,623 @@
         <v>8</v>
       </c>
       <c r="E28" s="5">
-        <v>21000</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
+      <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E29" s="5">
-        <v>14000</v>
+        <v>105000</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
-        <f t="shared" si="0"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D30" s="3" t="s">
+      <c r="E31" s="5">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="5">
-        <v>8500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E31" s="5">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="3">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>13</v>
-      </c>
       <c r="E32" s="5">
-        <v>14000</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
+      <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E33" s="5">
-        <v>26000</v>
+        <v>42500</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="3">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
+      <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E34" s="5">
-        <v>33000</v>
+        <v>59500</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
-        <f t="shared" si="0"/>
-        <v>19</v>
+        <f>A26+1</f>
+        <v>11</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E35" s="5">
-        <v>50000</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E36" s="5">
-        <v>68000</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <f t="shared" si="0"/>
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E37" s="5">
-        <v>26000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E38" s="5">
-        <v>75000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <f t="shared" si="0"/>
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E39" s="5">
-        <v>72000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E40" s="5">
-        <v>17000</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E41" s="5">
-        <v>18000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <f t="shared" si="0"/>
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E42" s="5">
-        <v>39000</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E43" s="5">
-        <v>24000</v>
+        <v>50000</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <f t="shared" si="0"/>
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="E44" s="5">
-        <v>32000</v>
+        <v>68000</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <f t="shared" si="0"/>
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E45" s="5">
-        <v>19000</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <f t="shared" si="0"/>
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E46" s="5">
-        <v>7200</v>
+        <v>75000</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="E47" s="5">
-        <v>9000</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E48" s="5">
-        <v>25200</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="E49" s="5">
-        <v>25200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E50" s="5">
-        <v>12000</v>
+        <v>39000</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="E51" s="5">
-        <v>21000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="7">
-        <v>64800</v>
+        <v>8</v>
+      </c>
+      <c r="E52" s="5">
+        <v>32000</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>10</v>
+        <v>29</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E53" s="7">
-        <v>48600</v>
+        <v>14</v>
+      </c>
+      <c r="E53" s="5">
+        <v>19000</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C54" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="3" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E54" s="7">
-        <v>48600</v>
+        <v>24</v>
+      </c>
+      <c r="E54" s="5">
+        <v>7200</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E55" s="5">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E56" s="5">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E57" s="5">
+        <v>25200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="5">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="5">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E60" s="7">
+        <v>64800</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E61" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="7">
+        <v>48600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B63" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D55" s="11" t="s">
+      <c r="D63" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E55" s="10">
+      <c r="E63" s="10">
         <v>4750</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B56" s="9"/>
+    <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B64" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB6DD1E-4214-4C0B-9142-76CF0A750E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F930447C-4D0B-458B-9903-CEAD1D4E85CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2550" yWindow="2550" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12000" yWindow="0" windowWidth="8490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
   <si>
     <t>No.</t>
   </si>
@@ -208,6 +208,18 @@
   </si>
   <si>
     <t>AL-AQEEL GOLD PAKET ISI 7</t>
+  </si>
+  <si>
+    <t>Paket Wakaf Murah 50 pcs Alquran Al Aqeel</t>
+  </si>
+  <si>
+    <t>Alquran Paket Wakaf Murah 50 pcs Al Aqeel</t>
+  </si>
+  <si>
+    <t>Pastel</t>
+  </si>
+  <si>
+    <t>Gold</t>
   </si>
 </sst>
 </file>
@@ -294,7 +306,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -325,6 +337,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -607,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1685,7 +1706,90 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B64" s="9"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E64" s="10">
+        <v>725000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="12"/>
+      <c r="B65" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="10">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B66" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="14">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E67" s="10">
+        <v>725000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="10">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="14">
+        <v>400000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F930447C-4D0B-458B-9903-CEAD1D4E85CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38034AE0-6FB3-4460-ABE3-682729FD8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12000" yWindow="0" windowWidth="8490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
   <si>
     <t>No.</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>Gold</t>
+  </si>
+  <si>
+    <t>PAKET MURAH ALQURAN AL AQEEL MUSHAF NON TERJEMAHAN | SURABAYA | al quran Wakaf/Shodaqoh hadiah hampers islami</t>
   </si>
 </sst>
 </file>
@@ -306,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -339,13 +342,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -628,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1739,13 +1736,13 @@
       <c r="B66" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E66" s="14">
+      <c r="E66" s="10">
         <v>400000</v>
       </c>
     </row>
@@ -1781,14 +1778,22 @@
       <c r="B69" t="s">
         <v>62</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C69" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="10">
         <v>400000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>65</v>
+      </c>
+      <c r="E70" s="10">
+        <v>14500</v>
       </c>
     </row>
   </sheetData>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38034AE0-6FB3-4460-ABE3-682729FD8B28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EED921-677A-4C08-9788-F6A70328FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
   <si>
     <t>No.</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>PAKET MURAH ALQURAN AL AQEEL MUSHAF NON TERJEMAHAN | SURABAYA | al quran Wakaf/Shodaqoh hadiah hampers islami</t>
+  </si>
+  <si>
+    <t>HVS (GOLD)</t>
   </si>
 </sst>
 </file>
@@ -309,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -343,6 +346,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -625,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E70"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1788,11 +1794,59 @@
         <v>400000</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>65</v>
       </c>
+      <c r="C70" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="E70" s="10">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="10">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="10">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" s="10">
         <v>14500</v>
       </c>
     </row>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EED921-677A-4C08-9788-F6A70328FEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0696E5-2C14-48E2-B53D-9ABAC66C5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
   <si>
     <t>No.</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>HVS (GOLD)</t>
+  </si>
+  <si>
+    <t>Alquran Edisi Tahlilan Lebih Mulia Daripada Buku Yasin Biasa</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -346,9 +349,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -631,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1798,7 +1798,7 @@
       <c r="B70" t="s">
         <v>65</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C70" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D70" s="3" t="s">
@@ -1812,7 +1812,7 @@
       <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D71" s="3" t="s">
@@ -1826,7 +1826,7 @@
       <c r="B72" t="s">
         <v>65</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C72" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D72" s="3" t="s">
@@ -1840,13 +1840,21 @@
       <c r="B73" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="12" t="s">
         <v>6</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>24</v>
       </c>
       <c r="E73" s="10">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>67</v>
+      </c>
+      <c r="E74" s="10">
         <v>14500</v>
       </c>
     </row>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A0696E5-2C14-48E2-B53D-9ABAC66C5AE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C89529-640B-40F9-80F2-CF240CFFD3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
   <si>
     <t>No.</t>
   </si>
@@ -229,17 +229,124 @@
   </si>
   <si>
     <t>Alquran Edisi Tahlilan Lebih Mulia Daripada Buku Yasin Biasa</t>
+  </si>
+  <si>
+    <t>Al Quran Wakaf Al Aqeel Pastel</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Aleem Saku</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Mumtaaz Tadwid &amp; Terjemah</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Subhaan Tadwid Tanpa Terjemah</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Fikrah Terjemah Perkata</t>
+  </si>
+  <si>
+    <t>Al Quran Legend Gold Silver Al Aqeel</t>
+  </si>
+  <si>
+    <t>Al Quran Al Quddus Tanpa Terjemahan</t>
+  </si>
+  <si>
+    <t>Juz Amma Edisi Terbaru</t>
+  </si>
+  <si>
+    <t>Koran</t>
+  </si>
+  <si>
+    <t>Al Quran Custom Nama &amp; Foto Cover</t>
+  </si>
+  <si>
+    <t>Al Quran Edisi Tahlilan Terbaru</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Aqeel Full Color</t>
+  </si>
+  <si>
+    <t>Paket Murah Al Aqeel Wakaf</t>
+  </si>
+  <si>
+    <t>Al Aqeel Mushaf Wakaf</t>
+  </si>
+  <si>
+    <t>Al Quran Al Quddus Saku Resleting</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>Kulit</t>
+  </si>
+  <si>
+    <t>Pashmina Hoodie by DAMA</t>
+  </si>
+  <si>
+    <t>Ceruty Babydoll</t>
+  </si>
+  <si>
+    <t>Buku Cerita Fabel Anak</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Aqeel Cover Metalik</t>
+  </si>
+  <si>
+    <t>Hijab Voal Laser Cut Motif</t>
+  </si>
+  <si>
+    <t>Voal</t>
+  </si>
+  <si>
+    <t>Hijab Segi Empat Bella Square Premium</t>
+  </si>
+  <si>
+    <t>Pollycotton</t>
+  </si>
+  <si>
+    <t>Hijab Bergo Jersey by DAMA</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>AL AQEEL</t>
+  </si>
+  <si>
+    <t>A5 HVS</t>
+  </si>
+  <si>
+    <t>A5 KORAN</t>
+  </si>
+  <si>
+    <t>A6 HVS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,8 +369,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -273,6 +387,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -312,10 +432,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -351,8 +472,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -631,10 +762,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1858,6 +1989,469 @@
         <v>14500</v>
       </c>
     </row>
+    <row r="75" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E75" s="14">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E76" s="13">
+        <v>28000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="13"/>
+      <c r="B77" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E77" s="13">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="13">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="13"/>
+      <c r="B79" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E79" s="13">
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
+      <c r="B80" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" s="13">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
+      <c r="B81" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E81" s="13">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
+      <c r="B82" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="13">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
+      <c r="B83" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E83" s="13">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" s="13">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="13"/>
+      <c r="B85" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="13">
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E86" s="13">
+        <v>9000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
+      <c r="B87" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E87" s="13">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="13"/>
+      <c r="B88" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" t="s">
+        <v>100</v>
+      </c>
+      <c r="E88" s="16">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
+      <c r="B89" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" t="s">
+        <v>20</v>
+      </c>
+      <c r="D89" t="s">
+        <v>100</v>
+      </c>
+      <c r="E89" s="16">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="13"/>
+      <c r="B90" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" t="s">
+        <v>99</v>
+      </c>
+      <c r="D90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="16">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="13"/>
+      <c r="B91" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" t="s">
+        <v>99</v>
+      </c>
+      <c r="D91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="16">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
+      <c r="B92" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="16">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="13"/>
+      <c r="B93" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="E93" s="13">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
+      <c r="B94" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="13"/>
+      <c r="B95" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="E95" s="13">
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="13"/>
+      <c r="B96" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="13">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="13"/>
+      <c r="B97" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" s="13">
+        <v>14500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="13"/>
+      <c r="B98" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E98" s="13">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="13"/>
+      <c r="B99" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="13">
+        <v>14325</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100" s="13">
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="E101" s="13">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="E102" s="13">
+        <v>12500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="D103" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E103" s="17">
+        <v>25577</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="13"/>
+      <c r="B104" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E104" s="17">
+        <v>25577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="13"/>
+      <c r="B105" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="D105" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="17">
+        <v>25577</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/HARGA ONLINE.xlsx
+++ b/HARGA ONLINE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5C89529-640B-40F9-80F2-CF240CFFD3EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37844CA3-C4AE-4042-98E0-ACF6631352C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="104">
   <si>
     <t>No.</t>
   </si>
@@ -231,90 +231,30 @@
     <t>Alquran Edisi Tahlilan Lebih Mulia Daripada Buku Yasin Biasa</t>
   </si>
   <si>
-    <t>Al Quran Wakaf Al Aqeel Pastel</t>
-  </si>
-  <si>
-    <t>Al Quran Mushaf Al Aleem Saku</t>
-  </si>
-  <si>
     <t>A6</t>
   </si>
   <si>
-    <t>Al Quran Mushaf Mumtaaz Tadwid &amp; Terjemah</t>
-  </si>
-  <si>
     <t>A5</t>
   </si>
   <si>
-    <t>Al Quran Mushaf Subhaan Tadwid Tanpa Terjemah</t>
-  </si>
-  <si>
-    <t>Al Quran Mushaf Al Fikrah Terjemah Perkata</t>
-  </si>
-  <si>
-    <t>Al Quran Legend Gold Silver Al Aqeel</t>
-  </si>
-  <si>
-    <t>Al Quran Al Quddus Tanpa Terjemahan</t>
-  </si>
-  <si>
-    <t>Juz Amma Edisi Terbaru</t>
-  </si>
-  <si>
     <t>Koran</t>
   </si>
   <si>
-    <t>Al Quran Custom Nama &amp; Foto Cover</t>
-  </si>
-  <si>
-    <t>Al Quran Edisi Tahlilan Terbaru</t>
-  </si>
-  <si>
-    <t>Al Quran Mushaf Al Aqeel Full Color</t>
-  </si>
-  <si>
-    <t>Paket Murah Al Aqeel Wakaf</t>
-  </si>
-  <si>
-    <t>Al Aqeel Mushaf Wakaf</t>
-  </si>
-  <si>
-    <t>Al Quran Al Quddus Saku Resleting</t>
-  </si>
-  <si>
     <t>A7</t>
   </si>
   <si>
     <t>Kulit</t>
   </si>
   <si>
-    <t>Pashmina Hoodie by DAMA</t>
-  </si>
-  <si>
     <t>Ceruty Babydoll</t>
   </si>
   <si>
-    <t>Buku Cerita Fabel Anak</t>
-  </si>
-  <si>
-    <t>Al Quran Mushaf Al Aqeel Cover Metalik</t>
-  </si>
-  <si>
-    <t>Hijab Voal Laser Cut Motif</t>
-  </si>
-  <si>
     <t>Voal</t>
   </si>
   <si>
-    <t>Hijab Segi Empat Bella Square Premium</t>
-  </si>
-  <si>
     <t>Pollycotton</t>
   </si>
   <si>
-    <t>Hijab Bergo Jersey by DAMA</t>
-  </si>
-  <si>
     <t>Jersey</t>
   </si>
   <si>
@@ -334,6 +274,69 @@
   </si>
   <si>
     <t>A6 HVS</t>
+  </si>
+  <si>
+    <t>Al Quran Wakaf Al Aqeel A6 B5 Pastel Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN MUSHAF AL ALEEM A6 SAKU KERTAS QPP (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN TADJWID DAN TERJEMAHAN TAFSIR ASBABUNNUZUL WAQAF IBTIDA MUSHAF MUMTAAZ A5 KERTAS QPP (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al QURAN TADJWID TANPA TERJEMAHAN MUSHAF SUBHAAN A5 KERTAS QPP (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN MUSHAF AL FIKRAH A4 A5 HVS WAQAF IBTIDA TERJEMAHAN PERKATA (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Legend Gold Silver Al Aqeel A5 A7 Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Al Quddus Tanpa terjemahan uk A5 DAN A4 Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Juz'amma A5 kertas KORAN Edisi Terbaru Lebih Lengkap Terjemahan Tajwid Asmaul Husnah (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Juz'amma A5 kertas HVS Edisi Terbaru Lebih Lengkap Terjemahan Tajwid Asmaul Husnah (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN CUSTOM NAMA FOTO DI COVER SISIPAN ACARA TASYAKUR TAHLIL YASIN (BANDUNG)</t>
+  </si>
+  <si>
+    <t>ALQURAN A6 HVS EDISI TAHLILAN TERBARU 30 Juz Lengkap Dengan Terjemahan Dilengkapi Dengan Tahlil Dan Doa Pendek (BANDUNG)</t>
+  </si>
+  <si>
+    <t>Al Quran Mushaf Al Aqeel Full Color A5 B5 Kertas HVS (BANDUNG)</t>
+  </si>
+  <si>
+    <t>PAKET MURAH AL AQEEL A5 KERTAS KORAN TANPA TERJEMAHAN ALQURAN WAKAF (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL AQEEL A5 KERTAS KORAN TANPA TERJEMAHAN ALQURAN MUSHAF UNTUK WAKAF (BANDUNG)</t>
+  </si>
+  <si>
+    <t>AL QURAN AL QUDDUS SAKU A7 KULIT RESLETING (BANDUNG)</t>
+  </si>
+  <si>
+    <t>PASHMINA HODDIE BY DAMA CERUTY BABYDOLL</t>
+  </si>
+  <si>
+    <t>BUKU CERTIA FABEL ANAK PAUD TK SD</t>
+  </si>
+  <si>
+    <t>AL QUR'AN MUSHAF AL AQEEL COVER METALIK TANPA TERJEMAHAN</t>
+  </si>
+  <si>
+    <t>HIJAB VOAL LASER CUT MOTIF</t>
+  </si>
+  <si>
+    <t>HIJAB SEGI EMPAT BELLA SQUARE HIJAB PREMIUM POLLYCOTTON ANTI MELEYOT Kerudung</t>
+  </si>
+  <si>
+    <t>HIJAB BERGO JERSEY BY DAMA</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
     <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -479,8 +482,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -764,8 +767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="F76" sqref="F76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1991,14 +1994,14 @@
     </row>
     <row r="75" spans="1:5" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="14"/>
-      <c r="B75" s="14" t="s">
+      <c r="B75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="14" t="s">
         <v>68</v>
-      </c>
-      <c r="C75" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D75" s="14" t="s">
-        <v>70</v>
       </c>
       <c r="E75" s="14">
         <v>12500</v>
@@ -2006,14 +2009,14 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
-      <c r="B76" s="13" t="s">
-        <v>68</v>
+      <c r="B76" t="s">
+        <v>83</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E76" s="13">
         <v>28000</v>
@@ -2021,44 +2024,44 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="13"/>
-      <c r="B77" s="13" t="s">
-        <v>69</v>
+      <c r="B77" t="s">
+        <v>84</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E77" s="13">
         <v>14000</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
-      <c r="B78" s="13" t="s">
-        <v>71</v>
+      <c r="B78" t="s">
+        <v>85</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E78" s="13">
         <v>75000</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="13"/>
-      <c r="B79" s="13" t="s">
-        <v>73</v>
+      <c r="B79" t="s">
+        <v>86</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E79" s="13">
         <v>72000</v>
@@ -2066,14 +2069,14 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
-      <c r="B80" s="13" t="s">
-        <v>74</v>
+      <c r="B80" t="s">
+        <v>87</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E80" s="13">
         <v>50000</v>
@@ -2081,14 +2084,14 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="13"/>
-      <c r="B81" s="13" t="s">
-        <v>74</v>
+      <c r="B81" t="s">
+        <v>87</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E81" s="13">
         <v>26000</v>
@@ -2096,14 +2099,14 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
-      <c r="B82" s="13" t="s">
-        <v>75</v>
+      <c r="B82" t="s">
+        <v>88</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E82" s="13">
         <v>21000</v>
@@ -2111,14 +2114,14 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
-      <c r="B83" s="13" t="s">
-        <v>75</v>
+      <c r="B83" t="s">
+        <v>88</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E83" s="13">
         <v>18500</v>
@@ -2126,14 +2129,14 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="13"/>
-      <c r="B84" s="13" t="s">
-        <v>76</v>
+      <c r="B84" t="s">
+        <v>89</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E84" s="13">
         <v>24000</v>
@@ -2141,14 +2144,14 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="13"/>
-      <c r="B85" s="13" t="s">
-        <v>76</v>
+      <c r="B85" t="s">
+        <v>89</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="E85" s="13">
         <v>39000</v>
@@ -2156,14 +2159,14 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
-      <c r="B86" s="13" t="s">
-        <v>77</v>
+      <c r="B86" t="s">
+        <v>90</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E86" s="13">
         <v>9000</v>
@@ -2171,14 +2174,14 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="13"/>
-      <c r="B87" s="13" t="s">
-        <v>77</v>
+      <c r="B87" t="s">
+        <v>91</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E87" s="13">
         <v>7200</v>
@@ -2186,14 +2189,14 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="13"/>
-      <c r="B88" s="13" t="s">
-        <v>79</v>
+      <c r="B88" t="s">
+        <v>92</v>
       </c>
       <c r="C88" t="s">
         <v>16</v>
       </c>
       <c r="D88" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E88" s="16">
         <v>26000</v>
@@ -2201,14 +2204,14 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
-      <c r="B89" s="13" t="s">
-        <v>79</v>
+      <c r="B89" t="s">
+        <v>92</v>
       </c>
       <c r="C89" t="s">
         <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E89" s="16">
         <v>24000</v>
@@ -2216,14 +2219,14 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="13"/>
-      <c r="B90" s="13" t="s">
+      <c r="B90" t="s">
+        <v>92</v>
+      </c>
+      <c r="C90" t="s">
         <v>79</v>
       </c>
-      <c r="C90" t="s">
-        <v>99</v>
-      </c>
       <c r="D90" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E90" s="16">
         <v>18000</v>
@@ -2231,14 +2234,14 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="13"/>
-      <c r="B91" s="13" t="s">
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
         <v>79</v>
       </c>
-      <c r="C91" t="s">
-        <v>99</v>
-      </c>
       <c r="D91" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="E91" s="16">
         <v>14500</v>
@@ -2246,14 +2249,14 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="13"/>
-      <c r="B92" s="13" t="s">
+      <c r="B92" t="s">
+        <v>92</v>
+      </c>
+      <c r="C92" t="s">
         <v>79</v>
       </c>
-      <c r="C92" t="s">
-        <v>99</v>
-      </c>
       <c r="D92" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="E92" s="16">
         <v>12500</v>
@@ -2261,14 +2264,14 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="13"/>
-      <c r="B93" s="13" t="s">
-        <v>80</v>
+      <c r="B93" t="s">
+        <v>93</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E93" s="13">
         <v>14500</v>
@@ -2276,14 +2279,14 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
-      <c r="B94" s="13" t="s">
-        <v>81</v>
+      <c r="B94" t="s">
+        <v>94</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E94" s="13">
         <v>18000</v>
@@ -2291,14 +2294,14 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="13"/>
-      <c r="B95" s="13" t="s">
-        <v>81</v>
+      <c r="B95" t="s">
+        <v>94</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="E95" s="13">
         <v>27000</v>
@@ -2306,14 +2309,14 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="13"/>
-      <c r="B96" s="13" t="s">
-        <v>82</v>
+      <c r="B96" t="s">
+        <v>95</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E96" s="13">
         <v>14500</v>
@@ -2321,14 +2324,14 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="13"/>
-      <c r="B97" s="13" t="s">
-        <v>83</v>
+      <c r="B97" t="s">
+        <v>96</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E97" s="13">
         <v>14500</v>
@@ -2336,14 +2339,14 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
-      <c r="B98" s="13" t="s">
-        <v>84</v>
+      <c r="B98" t="s">
+        <v>97</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E98" s="13">
         <v>18000</v>
@@ -2351,11 +2354,11 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="13"/>
-      <c r="B99" s="13" t="s">
-        <v>87</v>
+      <c r="B99" t="s">
+        <v>98</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="D99" s="13" t="s">
         <v>37</v>
@@ -2366,8 +2369,8 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
-      <c r="B100" s="13" t="s">
-        <v>89</v>
+      <c r="B100" t="s">
+        <v>99</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>37</v>
@@ -2381,12 +2384,12 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="13"/>
-      <c r="B101" s="13" t="s">
-        <v>90</v>
+      <c r="B101" t="s">
+        <v>100</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="E101" s="13">
         <v>8500</v>
@@ -2394,14 +2397,14 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
-      <c r="B102" s="13" t="s">
-        <v>90</v>
+      <c r="B102" t="s">
+        <v>100</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>37</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E102" s="13">
         <v>12500</v>
@@ -2409,11 +2412,11 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
-      <c r="B103" s="13" t="s">
-        <v>91</v>
+      <c r="B103" t="s">
+        <v>101</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="D103" s="13" t="s">
         <v>37</v>
@@ -2424,11 +2427,11 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
-      <c r="B104" s="13" t="s">
-        <v>93</v>
+      <c r="B104" t="s">
+        <v>102</v>
       </c>
       <c r="C104" s="13" t="s">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="D104" s="13" t="s">
         <v>37</v>
@@ -2439,11 +2442,11 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="13"/>
-      <c r="B105" s="13" t="s">
-        <v>95</v>
+      <c r="B105" t="s">
+        <v>103</v>
       </c>
       <c r="C105" s="13" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="D105" s="13" t="s">
         <v>37</v>
